--- a/data/teaching.xlsx
+++ b/data/teaching.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vipin\New Volume\prasad-research.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prasad-research.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84580792-889D-441D-9F28-F3B620C0154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8979C1-A5A7-40A0-B0E2-EA832224372B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Title</t>
   </si>
@@ -36,19 +36,22 @@
     <t>Venue</t>
   </si>
   <si>
-    <t>Spring 2025</t>
-  </si>
-  <si>
     <t>IIT Goa</t>
   </si>
   <si>
-    <t>Deep Learning for Computer Visible</t>
-  </si>
-  <si>
-    <t>Digital Signal Processing</t>
-  </si>
-  <si>
     <t>Spring 2026</t>
+  </si>
+  <si>
+    <t>Digital Image Processing with Python</t>
+  </si>
+  <si>
+    <t>Deep Learning for Computer Vision</t>
+  </si>
+  <si>
+    <t>Autumn 2025</t>
+  </si>
+  <si>
+    <t>Ocean Vision AI</t>
   </si>
 </sst>
 </file>
@@ -366,13 +369,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -390,10 +397,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -404,7 +411,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
